--- a/services/excel/HALLS INFORMATIONS.xlsx
+++ b/services/excel/HALLS INFORMATIONS.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46B0682-DFEC-4527-BD0A-E12362697680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,6 +126,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -173,7 +177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,9 +210,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,6 +262,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -416,181 +454,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B11" sqref="B11:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -599,24 +637,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
